--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683AC395-012B-4541-A276-97C2959D60BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4D56F9-5CAE-40DB-B662-E34553E23286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5676" yWindow="456" windowWidth="19920" windowHeight="14496" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Mit den Ergebnissen des Workshops auseinandersetzen; Planen für Umsetzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anpassung und Erweiterung der Marktrecherche, Literaturrecherche</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1255,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2442,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F55</f>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -11055,8 +11058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11497,13 +11500,20 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="20">
+        <v>43614</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F29">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
@@ -11765,7 +11775,7 @@
       <c r="E55" s="28"/>
       <c r="F55">
         <f>SUM(F8:F54)</f>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">

--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D8689-516D-4E86-9D02-01931B4DA198}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B90003F-B293-430C-AF8F-9B78D1140D83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5676" yWindow="456" windowWidth="19920" windowHeight="14496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>Lesen von Papers</t>
+  </si>
+  <si>
+    <t>Arbeiten an der Seminararbeit, lesen von Papern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überarbeiten der Arbeit, Meeting </t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1280,7 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>81.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,7 +2467,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F55</f>
-        <v>70</v>
+        <v>81.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -11262,8 +11268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11757,23 +11763,39 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="20">
+        <v>43507</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F32">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="20">
+        <v>43508</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F33">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -11995,7 +12017,7 @@
       <c r="E55" s="28"/>
       <c r="F55">
         <f>SUM(F8:F54)</f>
-        <v>70</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">

--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B32878-6D25-4FED-A97A-FE90FCDC63C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3532EDE8-DFCE-4D95-B4EC-165D133FD121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5676" yWindow="456" windowWidth="19920" windowHeight="14496" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>Prozess der Seminararbeit überdenken und konzipieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceldatei Longlist CRM  </t>
+  </si>
+  <si>
+    <t>Poster (Zeitaufwand für alle Versionen)</t>
+  </si>
+  <si>
+    <t>Management Paper (Zeit für alle Versionen)</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1304,7 @@
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.5</c:v>
+                  <c:v>106.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,7 +2422,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2482,7 +2491,7 @@
       </c>
       <c r="E4" s="1">
         <f>Pargan!F56</f>
-        <v>92.5</v>
+        <v>106.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -4570,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G229"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
@@ -11368,8 +11377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11513,7 +11522,7 @@
         <v>43550</v>
       </c>
       <c r="D12" s="21">
-        <v>0.83333333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E12" s="21">
         <v>0.875</v>
@@ -11530,14 +11539,14 @@
         <v>43552</v>
       </c>
       <c r="D13" s="21">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E13" s="21">
         <v>0.91666666666666663</v>
       </c>
       <c r="F13" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -11656,14 +11665,14 @@
         <v>43588</v>
       </c>
       <c r="D20" s="46">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E20" s="46">
         <v>0.66666666666666663</v>
       </c>
       <c r="F20" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -11731,11 +11740,11 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E24" s="21">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="24">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
@@ -11953,33 +11962,45 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="B37" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="20">
+        <v>43639</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F37">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>103</v>
+      </c>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <f>5</f>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="23"/>
+      <c r="B39" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <f>4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -12151,7 +12172,7 @@
       <c r="E56" s="28"/>
       <c r="F56">
         <f>SUM(F8:F55)</f>
-        <v>92.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">

--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/Arbeitsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31242E-71F5-0B4A-A602-589C59DE3380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B255ABD-A2FC-C343-9054-7B624CDFD921}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="460" windowWidth="19920" windowHeight="14480" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="460" windowWidth="19920" windowHeight="14480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
     <sheet name="Pargan" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="112">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -358,6 +355,24 @@
   <si>
     <t>CRM-System wieder neu aufsetzen</t>
   </si>
+  <si>
+    <t>Poster erstellen + Managementpaper erstellen</t>
+  </si>
+  <si>
+    <t>Poster verbessern</t>
+  </si>
+  <si>
+    <t>Seminararbeit korrekturlesen</t>
+  </si>
+  <si>
+    <t>Projekplan fertigstellen</t>
+  </si>
+  <si>
+    <t>Kommunikationsplanfertigstellen</t>
+  </si>
+  <si>
+    <t>Seminararbeit fertigstellen und abschließen</t>
+  </si>
 </sst>
 </file>
 
@@ -450,6 +465,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -592,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,15 +716,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -721,6 +728,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -890,66 +909,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1045,6 +1004,66 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1322,16 +1341,16 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.5</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.5</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,31 +2052,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Zeiterfassung_Gesamt"/>
-      <sheetName val="Samardzic"/>
-      <sheetName val="Dusanic"/>
-      <sheetName val="Ljutic"/>
-      <sheetName val="Tomic"/>
-      <sheetName val="Stojcevic"/>
-      <sheetName val="Gesamt_Zeiterfassung_2Version"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:F71" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B6:F71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -2078,18 +2072,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:F73" totalsRowCount="1" headerRowDxfId="23">
-  <autoFilter ref="B6:F72" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:F74" totalsRowCount="1" headerRowDxfId="23">
+  <autoFilter ref="B6:F73" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H52">
     <sortCondition ref="D6:D52"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="22" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="21" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="20" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="19" totalsRowDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="0">
-      <calculatedColumnFormula>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
+      <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2097,41 +2091,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle34" displayName="Tabelle34" ref="B6:F71" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle34" displayName="Tabelle34" ref="B6:F71" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="B6:F71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H49">
     <sortCondition ref="D6:D49"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F68" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F68" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B6:F68" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H48">
     <sortCondition ref="D6:D48"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F60" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F60" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B6:F60" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H60">
     <sortCondition ref="C6:C60"/>
@@ -2141,7 +2135,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="5">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2467,13 +2461,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="4"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
@@ -2506,19 +2500,19 @@
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F71</f>
-        <v>113.5</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
-        <v>135.5</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1">
         <f>Tomic!F68</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1">
         <f>Pargan!F60</f>
-        <v>113</v>
+        <v>125.5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -4711,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G235"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5128,10 +5122,11 @@
       <c r="D27" s="21">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="49">
         <v>0.43055555555555558</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5355,13 +5350,13 @@
       <c r="B40" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="48">
         <v>43606</v>
       </c>
       <c r="D40" s="21">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="50">
         <v>0.60416666666666663</v>
       </c>
       <c r="F40" s="24">
@@ -5625,7 +5620,7 @@
     </row>
     <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="51" t="s">
         <v>102</v>
       </c>
       <c r="C55" s="20">
@@ -5695,80 +5690,130 @@
       <c r="E58" s="21">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F58">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
+      <c r="F58" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="B59" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="20">
+        <v>43639</v>
+      </c>
+      <c r="D59" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F59" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
+      <c r="B60" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="20">
+        <v>43640</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F60" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="20">
+        <v>43641</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="F61" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
+      <c r="B62" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="20">
+        <v>43641</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F62" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
+      <c r="B63" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="20">
+        <v>43641</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F63" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="B64" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="20">
+        <v>43586</v>
+      </c>
+      <c r="D64" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="E64" s="21">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F64" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
-      <c r="B65" s="36"/>
+      <c r="B65" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="C65" s="6"/>
       <c r="D65" s="37"/>
       <c r="E65" s="35"/>
@@ -5779,7 +5824,9 @@
     </row>
     <row r="66" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
-      <c r="B66" s="36"/>
+      <c r="B66" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="37"/>
       <c r="E66" s="35"/>
@@ -5790,7 +5837,9 @@
     </row>
     <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
-      <c r="B67" s="36"/>
+      <c r="B67" s="36" t="s">
+        <v>109</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="37"/>
       <c r="E67" s="35"/>
@@ -5801,7 +5850,9 @@
     </row>
     <row r="68" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
-      <c r="B68" s="36"/>
+      <c r="B68" s="36" t="s">
+        <v>110</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="37"/>
       <c r="E68" s="35"/>
@@ -5812,7 +5863,9 @@
     </row>
     <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
-      <c r="B69" s="36"/>
+      <c r="B69" s="36" t="s">
+        <v>111</v>
+      </c>
       <c r="C69" s="6"/>
       <c r="D69" s="37"/>
       <c r="E69" s="35"/>
@@ -5856,24 +5909,28 @@
     </row>
     <row r="73" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
-      <c r="B73" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42">
-        <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
-        <v>135.5</v>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
       </c>
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="32"/>
-      <c r="F74"/>
+      <c r="B74" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42">
+        <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
+        <v>158</v>
+      </c>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -7151,7 +7208,7 @@
   <dimension ref="A2:G246"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F43"/>
+      <selection activeCell="B44" sqref="B44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7866,13 +7923,21 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="B44" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="20">
+        <v>43640</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F44" s="24">
-        <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -8156,7 +8221,7 @@
       <c r="E71" s="21"/>
       <c r="F71" s="24">
         <f>SUM(F8:F70)</f>
-        <v>113.5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9549,7 +9614,7 @@
   <dimension ref="A2:G243"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F41"/>
+      <selection activeCell="B42" sqref="B42:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10226,13 +10291,21 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42">
-        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+      <c r="B42" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="20">
+        <v>43640</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="F42" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -10506,7 +10579,7 @@
       <c r="E68" s="28"/>
       <c r="F68">
         <f>SUM(F8:F67)</f>
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -11899,8 +11972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F42"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12533,8 +12606,8 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F39">
-        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>4</v>
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -12551,8 +12624,8 @@
         <v>0.875</v>
       </c>
       <c r="F40">
-        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -12569,8 +12642,8 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F41">
-        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>3.5</v>
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -12587,38 +12660,62 @@
         <v>0.75</v>
       </c>
       <c r="F42">
-        <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="B43" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="20">
+        <v>43640</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0.875</v>
+      </c>
       <c r="F43">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="B44" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="20">
+        <v>43641</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F44">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="B45" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="20">
+        <v>43586</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="F45">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -12770,7 +12867,7 @@
       <c r="E60" s="28"/>
       <c r="F60">
         <f>SUM(F8:F59)</f>
-        <v>113</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">

--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/Arbeitsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B255ABD-A2FC-C343-9054-7B624CDFD921}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A3A0E0-72E3-7B44-BD8D-F8BF8BFCD782}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="460" windowWidth="19920" windowHeight="14480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11380" yWindow="460" windowWidth="14220" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -728,6 +728,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,9 +738,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2461,13 +2461,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="4"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
@@ -2632,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F252"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B43" sqref="B43:F43"/>
     </sheetView>
   </sheetViews>
@@ -4705,8 +4705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5796,7 +5796,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="20">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="D64" s="21">
         <v>0.4375</v>
@@ -5911,7 +5911,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
-      <c r="D73" s="55"/>
+      <c r="D73" s="52"/>
       <c r="E73" s="35"/>
       <c r="F73" s="24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -11972,8 +11972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F246"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F52"/>
+    <sheetView topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12705,7 +12705,7 @@
         <v>107</v>
       </c>
       <c r="C45" s="20">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="D45" s="21">
         <v>0.4375</v>

--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pargan\Documents\GitHub\IT_Projekt_SS19\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65281C1B-A5EF-4D4F-BCD9-D56E57E4F2D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F639AAC-A3AC-4080-820F-EDF710490C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Tomic" sheetId="5" r:id="rId5"/>
     <sheet name="Pargan" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="122">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -402,6 +399,9 @@
   <si>
     <t xml:space="preserve">Poster erstellen </t>
   </si>
+  <si>
+    <t>überarbeiten der Seminararbeit</t>
+  </si>
 </sst>
 </file>
 
@@ -750,6 +750,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,21 +765,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -935,6 +932,9 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1378,7 +1378,7 @@
                   <c:v>144.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.5</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,29 +2080,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Zeiterfassung_Gesamt"/>
-      <sheetName val="Samardzic"/>
-      <sheetName val="Ljutic"/>
-      <sheetName val="Dusanic"/>
-      <sheetName val="Tomic"/>
-      <sheetName val="Pargan"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:F71" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="B6:F71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -2129,12 +2106,12 @@
     <sortCondition ref="D6:D52"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="23" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="22" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="21" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="20" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="23" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="22" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="21" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="20" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0">
+      <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2176,10 +2153,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F63" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="B6:F63" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <sortState ref="B7:H63">
-    <sortCondition ref="C6:C63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F64" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B6:F64" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <sortState ref="B7:H64">
+    <sortCondition ref="C6:C64"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Beschreibung"/>
@@ -2512,13 +2489,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="4"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
@@ -2562,8 +2539,8 @@
         <v>144.5</v>
       </c>
       <c r="E4" s="1">
-        <f>Pargan!F63</f>
-        <v>148.5</v>
+        <f>Pargan!F64</f>
+        <v>150</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="38"/>
@@ -4756,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F70"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4816,7 +4793,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F7" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -4834,7 +4811,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F8" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
@@ -4852,7 +4829,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F9" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -4870,7 +4847,7 @@
         <v>0.625</v>
       </c>
       <c r="F10" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -4889,7 +4866,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F11" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
@@ -4907,7 +4884,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F12" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -4925,7 +4902,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F13" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -4943,7 +4920,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F14" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -4961,7 +4938,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F15" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -4979,7 +4956,7 @@
         <v>0.875</v>
       </c>
       <c r="F16" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -4997,7 +4974,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F17" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5015,7 +4992,7 @@
         <v>0.8125</v>
       </c>
       <c r="F18" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -5033,7 +5010,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F19" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5051,7 +5028,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F20" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -5069,7 +5046,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F21" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5087,7 +5064,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F22" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
@@ -5105,7 +5082,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F23" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5123,7 +5100,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F24" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -5141,7 +5118,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F25" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5159,7 +5136,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F26" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -5173,11 +5150,11 @@
       <c r="D27" s="21">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="52">
         <v>0.43055555555555558</v>
       </c>
       <c r="F27" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5195,7 +5172,7 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F28" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5213,7 +5190,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F29" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5231,7 +5208,7 @@
         <v>0.8125</v>
       </c>
       <c r="F30" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>7.5</v>
       </c>
     </row>
@@ -5249,7 +5226,7 @@
         <v>0.625</v>
       </c>
       <c r="F31" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5267,7 +5244,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="F32" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5285,7 +5262,7 @@
         <v>0.5</v>
       </c>
       <c r="F33" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
@@ -5303,7 +5280,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F34" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>6.5</v>
       </c>
     </row>
@@ -5321,7 +5298,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F35" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -5339,7 +5316,7 @@
         <v>0.625</v>
       </c>
       <c r="F36" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5357,7 +5334,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F37" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5375,7 +5352,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F38" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -5393,7 +5370,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F39" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5411,7 +5388,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F40" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -5429,7 +5406,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="F41" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -5447,7 +5424,7 @@
         <v>0.625</v>
       </c>
       <c r="F42" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5465,7 +5442,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F43" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -5483,7 +5460,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F44" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -5501,7 +5478,7 @@
         <v>0.625</v>
       </c>
       <c r="F45" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5519,7 +5496,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F46" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5537,7 +5514,7 @@
         <v>0.75</v>
       </c>
       <c r="F47" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>6</v>
       </c>
     </row>
@@ -5555,7 +5532,7 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="F48" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5573,7 +5550,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F49" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5591,7 +5568,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F50" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -5609,7 +5586,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F51" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -5627,7 +5604,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F52" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
@@ -5646,7 +5623,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F53" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5665,7 +5642,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F54" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -5684,7 +5661,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="F55" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5</v>
       </c>
       <c r="G55" s="20"/>
@@ -5704,7 +5681,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F56" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -5723,13 +5700,13 @@
         <v>0.75</v>
       </c>
       <c r="F57" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="48">
@@ -5742,7 +5719,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="F58" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.5000000000000142</v>
       </c>
     </row>
@@ -5761,7 +5738,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F59" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>7</v>
       </c>
     </row>
@@ -5780,7 +5757,7 @@
         <v>0.625</v>
       </c>
       <c r="F60" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5799,7 +5776,7 @@
         <v>0.625</v>
       </c>
       <c r="F61" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -5818,7 +5795,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="F62" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5837,7 +5814,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F63" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -5856,7 +5833,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F64" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5875,7 +5852,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="F65" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -5888,7 +5865,7 @@
       <c r="D66" s="37"/>
       <c r="E66" s="35"/>
       <c r="F66" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5901,7 +5878,7 @@
       <c r="D67" s="37"/>
       <c r="E67" s="35"/>
       <c r="F67" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5914,7 +5891,7 @@
       <c r="D68" s="37"/>
       <c r="E68" s="35"/>
       <c r="F68" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5927,7 +5904,7 @@
       <c r="D69" s="37"/>
       <c r="E69" s="35"/>
       <c r="F69" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5940,7 +5917,7 @@
       <c r="D70" s="37"/>
       <c r="E70" s="35"/>
       <c r="F70" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +5928,7 @@
       <c r="D71" s="37"/>
       <c r="E71" s="35"/>
       <c r="F71" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5962,7 +5939,7 @@
       <c r="D72" s="37"/>
       <c r="E72" s="35"/>
       <c r="F72" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
     </row>
@@ -5973,7 +5950,7 @@
       <c r="D73" s="51"/>
       <c r="E73" s="35"/>
       <c r="F73" s="24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
       <c r="G73"/>
@@ -7266,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G249"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8031,7 +8008,7 @@
         <v>0.625</v>
       </c>
       <c r="F46">
-        <f>(Tabelle34[[#This Row],[bis]]*24)-(Tabelle34[[#This Row],[von]]*24)</f>
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
@@ -12193,8 +12170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F246"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13031,48 +13008,56 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="20">
         <v>43587</v>
       </c>
       <c r="D51" s="21">
-        <v>0.79166666666666663</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E51" s="21">
-        <v>0.97916666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F51">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="20">
+        <v>43588</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0.5625</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F52" s="24">
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="20">
         <v>43587</v>
       </c>
-      <c r="D52" s="21">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E52" s="21">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F52">
-        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="23"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
+      <c r="D53" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="F53">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -13087,7 +13072,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="23"/>
-      <c r="C55" s="20"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55">
@@ -13097,9 +13082,9 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="23"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
       <c r="F56">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -13107,9 +13092,9 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="23"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
       <c r="F57">
         <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -13117,7 +13102,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="23"/>
-      <c r="C58" s="25"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58">
@@ -13127,7 +13112,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59">
@@ -13167,49 +13152,54 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
       <c r="F63">
-        <f>SUM(F8:F62)</f>
-        <v>148.5</v>
+        <f>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
+      <c r="B64" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64">
+        <f>SUM(F8:F63)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="29"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="32"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
@@ -13249,13 +13239,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="6"/>
       <c r="D77" s="32"/>
     </row>
@@ -13441,15 +13431,15 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="34"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="32"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="B109" s="34"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
@@ -13457,29 +13447,29 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
-      <c r="B111" s="29"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="32"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
@@ -13711,15 +13701,15 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
-      <c r="B153" s="34"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="32"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
+      <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
@@ -13727,29 +13717,29 @@
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
-      <c r="B156" s="29"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="31"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="32"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="31"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
@@ -13981,15 +13971,15 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
-      <c r="B198" s="34"/>
+      <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="32"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
+      <c r="B199" s="34"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
+      <c r="D199" s="32"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
@@ -13997,29 +13987,29 @@
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
-      <c r="B201" s="29"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="31"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="32"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="31"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
@@ -14227,6 +14217,9 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="32"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>

--- a/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
+++ b/Arbeitsdokumente/Gesamt_Zeiterfassung_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anelljutic/Documents/GitHub/PS_InfoEng/IT_Projekt_SS19/Arbeitsdokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D63D7E-E395-664E-8271-EC14AD4A00FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C9D794-382D-DB43-99FB-A917375517DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="14220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,168 +772,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1031,7 +869,71 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1053,6 +955,38 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
       <fill>
         <patternFill patternType="none">
@@ -1063,12 +997,78 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2106,11 +2106,11 @@
     <sortCondition ref="D6:D52"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="23" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="22" totalsRowDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="21" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="20" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2119,41 +2119,41 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle34" displayName="Tabelle34" ref="B6:F74" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle34" displayName="Tabelle34" ref="B6:F74" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="B6:F74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H49">
     <sortCondition ref="D6:D49"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F70" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F70" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B6:F70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H48">
     <sortCondition ref="D6:D48"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F64" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F64" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B6:F64" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H64">
     <sortCondition ref="C6:C64"/>
@@ -2163,7 +2163,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="0">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2660,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F250"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
